--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_3_38.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_3_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2410870.232188879</v>
+        <v>2463202.066703774</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17338441.47276633</v>
+        <v>16612500.99216496</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.9342484445</v>
+        <v>278692.0725916862</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5241911.162958837</v>
+        <v>5311082.001868594</v>
       </c>
     </row>
     <row r="11">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
-        <v>320.0331481255878</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D2" t="n">
         <v>31.5506869772999</v>
@@ -713,19 +713,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>404.2032624633431</v>
+        <v>74.85450227885472</v>
       </c>
     </row>
     <row r="3">
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>106.0626366504663</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -862,10 +862,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
         <v>243.4206519573293</v>
@@ -883,7 +883,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>152.355512532834</v>
       </c>
     </row>
     <row r="5">
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>422.0365747800587</v>
+        <v>227.564554788639</v>
       </c>
       <c r="C5" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -956,13 +956,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0.8401470690381005</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X5" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="6">
@@ -975,7 +975,7 @@
         <v>120.0908620689655</v>
       </c>
       <c r="C6" t="n">
-        <v>105.3918965517242</v>
+        <v>105.3918965517241</v>
       </c>
       <c r="D6" t="n">
         <v>94.13938596491228</v>
@@ -1051,13 +1051,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>170.6306905111304</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>140.0647189123008</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1069,10 +1069,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1105,7 +1105,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
         <v>275.6486707394257</v>
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>422.0365747800587</v>
+        <v>418.7069096796287</v>
       </c>
       <c r="C8" t="n">
-        <v>361.0423675600758</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D8" t="n">
         <v>31.5506869772999</v>
@@ -1184,19 +1184,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
         <v>404.2032624633431</v>
@@ -1291,25 +1291,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>3.13954148002296</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,13 +1336,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>71.80950634292681</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
         <v>275.6486707394257</v>
@@ -1436,7 +1436,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>116.5030917965922</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -1531,7 +1531,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
-        <v>164.2192128704925</v>
+        <v>2.292363805516792</v>
       </c>
       <c r="E13" t="n">
         <v>168.0604237117701</v>
@@ -1543,10 +1543,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
         <v>157.6489550149833</v>
@@ -1585,7 +1585,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V13" t="n">
-        <v>144.4937753855478</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W13" t="n">
         <v>269.3061403695714</v>
@@ -1594,7 +1594,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y13" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1607,25 +1607,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>228.8762324996623</v>
+        <v>433.761048088411</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869772999</v>
+        <v>431.5506869773</v>
       </c>
       <c r="E14" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948843</v>
+        <v>423.5887552948844</v>
       </c>
       <c r="G14" t="n">
-        <v>397.3838530629687</v>
+        <v>397.3838530629688</v>
       </c>
       <c r="H14" t="n">
-        <v>286.2388530112159</v>
+        <v>286.238853011216</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791323674</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.81535507800143</v>
       </c>
       <c r="T14" t="n">
         <v>217.8665548556918</v>
@@ -1664,16 +1664,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655117</v>
+        <v>358.9907805655118</v>
       </c>
       <c r="W14" t="n">
-        <v>400.806900043077</v>
+        <v>400.8069000430771</v>
       </c>
       <c r="X14" t="n">
-        <v>414.9510387864824</v>
+        <v>414.9510387864825</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633431</v>
+        <v>404.2032624633432</v>
       </c>
     </row>
     <row r="15">
@@ -1768,7 +1768,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
-        <v>24.62703520776706</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
         <v>168.0604237117701</v>
@@ -1777,10 +1777,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>24.34318456170436</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1844,25 +1844,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
-        <v>433.7610480884109</v>
+        <v>433.761048088411</v>
       </c>
       <c r="D17" t="n">
-        <v>431.5506869772999</v>
+        <v>431.5506869773009</v>
       </c>
       <c r="E17" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
-        <v>423.5887552948843</v>
+        <v>423.5887552948844</v>
       </c>
       <c r="G17" t="n">
-        <v>397.3838530629687</v>
+        <v>397.3838530629688</v>
       </c>
       <c r="H17" t="n">
-        <v>286.2388530112159</v>
+        <v>286.238853011216</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.412621479131467</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800143</v>
       </c>
       <c r="T17" t="n">
         <v>217.8665548556918</v>
@@ -1901,13 +1901,13 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V17" t="n">
-        <v>358.9907805655117</v>
+        <v>358.9907805655118</v>
       </c>
       <c r="W17" t="n">
-        <v>400.806900043077</v>
+        <v>400.8069000430771</v>
       </c>
       <c r="X17" t="n">
-        <v>414.9510387864824</v>
+        <v>414.9510387864825</v>
       </c>
       <c r="Y17" t="n">
         <v>404.2032624633431</v>
@@ -2002,7 +2002,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
-        <v>31.24391673888196</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
         <v>164.2192128704925</v>
@@ -2014,7 +2014,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170439</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2081,25 +2081,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
-        <v>433.7610480884109</v>
+        <v>433.761048088411</v>
       </c>
       <c r="D20" t="n">
-        <v>431.5506869772999</v>
+        <v>431.5506869773</v>
       </c>
       <c r="E20" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F20" t="n">
-        <v>423.5887552948843</v>
+        <v>423.5887552948844</v>
       </c>
       <c r="G20" t="n">
-        <v>397.3838530629687</v>
+        <v>397.3838530629688</v>
       </c>
       <c r="H20" t="n">
-        <v>286.2388530112159</v>
+        <v>286.238853011216</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.412621479131467</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800143</v>
       </c>
       <c r="T20" t="n">
         <v>217.8665548556918</v>
@@ -2138,16 +2138,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V20" t="n">
-        <v>358.9907805655117</v>
+        <v>358.9907805655118</v>
       </c>
       <c r="W20" t="n">
-        <v>400.8069000430761</v>
+        <v>400.8069000430771</v>
       </c>
       <c r="X20" t="n">
-        <v>414.9510387864824</v>
+        <v>414.9510387864825</v>
       </c>
       <c r="Y20" t="n">
-        <v>404.2032624633431</v>
+        <v>404.2032624633432</v>
       </c>
     </row>
     <row r="21">
@@ -2251,7 +2251,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170436</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2305,7 +2305,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y22" t="n">
-        <v>85.55329631630707</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="23">
@@ -2527,7 +2527,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
-        <v>103.8284742946034</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U25" t="n">
         <v>275.6486707394257</v>
@@ -2542,7 +2542,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y25" t="n">
-        <v>225.1454739790328</v>
+        <v>85.55329631630673</v>
       </c>
     </row>
     <row r="26">
@@ -2761,7 +2761,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>18.05677735225785</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2846,7 +2846,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U29" t="n">
-        <v>256.6300796561524</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V29" t="n">
         <v>358.9907805655117</v>
@@ -2998,7 +2998,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>18.05677735225796</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>82.81535507800047</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T32" t="n">
         <v>217.8665548556918</v>
@@ -3235,7 +3235,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>18.05677735225726</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3263,28 +3263,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>419.2974898580666</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
-        <v>431.0219631664188</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
-        <v>428.8116020553078</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
-        <v>426.6979124712956</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
-        <v>420.8496703728922</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
-        <v>394.6447681409766</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H35" t="n">
-        <v>283.4997680892238</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>0.4126214791334209</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>80.07627015600923</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T35" t="n">
-        <v>215.1274699336996</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U35" t="n">
-        <v>253.8909947341611</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V35" t="n">
-        <v>356.2516956435196</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
-        <v>398.0678151210849</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
-        <v>412.2119538644903</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
-        <v>401.464177541351</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="36">
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>187.1613476098051</v>
+        <v>27.97358346682158</v>
       </c>
       <c r="C37" t="n">
-        <v>119.2362480612708</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
-        <v>161.4801279485004</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
-        <v>165.321338789778</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>172.2008985758692</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>161.1962773024385</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>135.7640676445371</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>85.03426481107928</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>18.4645581596897</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>154.9098700929912</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
-        <v>240.6815670353371</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V37" t="n">
-        <v>281.3468681262817</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
-        <v>266.5670554475793</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
-        <v>240.1987521979295</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y37" t="n">
-        <v>222.4063890570407</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3500,28 +3500,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>419.2974898580666</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
-        <v>431.0219631664188</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
-        <v>428.8116020553078</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
-        <v>426.6979124712956</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
-        <v>420.8496703728922</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
-        <v>394.6447681409766</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H38" t="n">
-        <v>283.4997680892238</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>80.07627015600923</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T38" t="n">
-        <v>215.1274699336996</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U38" t="n">
-        <v>253.8909947341611</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V38" t="n">
-        <v>356.2516956435196</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
-        <v>398.0678151210849</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
-        <v>412.2119538644903</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
-        <v>401.464177541351</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="39">
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>105.5897525719563</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
-        <v>168.0970094796152</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
-        <v>161.4801279485004</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
-        <v>165.321338789778</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
-        <v>172.2008985758692</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>161.1962773024385</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>135.7640676445371</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>85.03426481107928</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>18.4645581596897</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>154.9098700929912</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
-        <v>240.6815670353371</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U40" t="n">
-        <v>272.9095858174336</v>
+        <v>136.0564930766999</v>
       </c>
       <c r="V40" t="n">
-        <v>281.3468681262817</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
-        <v>266.5670554475793</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
-        <v>222.4063890570407</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="41">
@@ -3737,28 +3737,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>419.2974898580666</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>431.0219631664188</v>
+        <v>433.761048088411</v>
       </c>
       <c r="D41" t="n">
-        <v>428.8116020553078</v>
+        <v>431.5506869773</v>
       </c>
       <c r="E41" t="n">
-        <v>426.6979124712956</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>420.8496703728922</v>
+        <v>423.5887552948844</v>
       </c>
       <c r="G41" t="n">
-        <v>394.6447681409766</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
-        <v>283.4997680892238</v>
+        <v>286.238853011216</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.412621479131467</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>80.07627015600923</v>
+        <v>82.81535507800322</v>
       </c>
       <c r="T41" t="n">
-        <v>215.1274699336996</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
-        <v>322.4425197109289</v>
+        <v>358.9907805655118</v>
       </c>
       <c r="W41" t="n">
-        <v>398.0678151210849</v>
+        <v>400.8069000430771</v>
       </c>
       <c r="X41" t="n">
-        <v>412.2119538644903</v>
+        <v>414.9510387864825</v>
       </c>
       <c r="Y41" t="n">
-        <v>401.464177541351</v>
+        <v>404.2032624633432</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>187.1613476098051</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
-        <v>168.0970094796152</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>161.4801279485004</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
-        <v>165.321338789778</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
-        <v>172.2008985758692</v>
+        <v>67.68074767021322</v>
       </c>
       <c r="G43" t="n">
-        <v>161.1962773024385</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>135.7640676445371</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>85.03426481107928</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>18.4645581596897</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>154.9098700929912</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
-        <v>240.6815670353371</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U43" t="n">
-        <v>272.9095858174336</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
-        <v>266.5670554475793</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
-        <v>240.1987521979295</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y43" t="n">
-        <v>181.9829099475443</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="44">
@@ -3974,28 +3974,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>419.2974898580666</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>431.0219631664188</v>
+        <v>433.761048088411</v>
       </c>
       <c r="D44" t="n">
-        <v>221.1877015445656</v>
+        <v>431.5506869773</v>
       </c>
       <c r="E44" t="n">
-        <v>426.6979124712956</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>420.8496703728922</v>
+        <v>423.5887552948844</v>
       </c>
       <c r="G44" t="n">
-        <v>394.6447681409766</v>
+        <v>397.3838530629688</v>
       </c>
       <c r="H44" t="n">
-        <v>283.4997680892238</v>
+        <v>286.238853011216</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.412621479131467</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>82.81535507800143</v>
       </c>
       <c r="T44" t="n">
-        <v>215.1274699336996</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
-        <v>253.8909947341611</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
-        <v>356.2516956435196</v>
+        <v>358.9907805655118</v>
       </c>
       <c r="W44" t="n">
-        <v>398.0678151210849</v>
+        <v>400.8069000430771</v>
       </c>
       <c r="X44" t="n">
-        <v>412.2119538644903</v>
+        <v>414.9510387864825</v>
       </c>
       <c r="Y44" t="n">
-        <v>401.464177541351</v>
+        <v>404.2032624633432</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>187.1613476098051</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
-        <v>168.0970094796152</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>161.4801279485004</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
-        <v>165.321338789778</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
-        <v>172.2008985758692</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>161.1962773024385</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>135.7640676445371</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>85.03426481107928</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>154.9098700929912</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
-        <v>240.6815670353371</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U46" t="n">
-        <v>272.9095858174336</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
-        <v>266.5670554475793</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
-        <v>240.1987521979295</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
-        <v>200.4474681072339</v>
+        <v>121.9901272476388</v>
       </c>
     </row>
   </sheetData>
@@ -4304,7 +4304,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>442.6402219259112</v>
+        <v>153.4764845146214</v>
       </c>
       <c r="C2" t="n">
         <v>119.3744157384487</v>
@@ -4331,19 +4331,19 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K2" t="n">
-        <v>874.0494664914149</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="L2" t="n">
-        <v>874.0494664914149</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="M2" t="n">
-        <v>874.0494664914149</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="N2" t="n">
-        <v>874.0494664914149</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="O2" t="n">
-        <v>874.0494664914149</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="P2" t="n">
         <v>1107.976466382457</v>
@@ -4361,19 +4361,19 @@
         <v>1697.183430080417</v>
       </c>
       <c r="U2" t="n">
-        <v>1697.183430080417</v>
+        <v>1437.961127397434</v>
       </c>
       <c r="V2" t="n">
-        <v>1697.183430080417</v>
+        <v>1075.344177331261</v>
       </c>
       <c r="W2" t="n">
-        <v>1696.368379531855</v>
+        <v>670.4887227422939</v>
       </c>
       <c r="X2" t="n">
-        <v>1277.225916111166</v>
+        <v>251.3462593216046</v>
       </c>
       <c r="Y2" t="n">
-        <v>868.939792410819</v>
+        <v>175.7356509591251</v>
       </c>
     </row>
     <row r="3">
@@ -4386,7 +4386,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D3" t="n">
         <v>338.5686635760967</v>
@@ -4395,10 +4395,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F3" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H3" t="n">
         <v>33.94366860160834</v>
@@ -4410,19 +4410,19 @@
         <v>384.5656667282782</v>
       </c>
       <c r="K3" t="n">
-        <v>804.6185656731816</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="L3" t="n">
-        <v>804.6185656731816</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="M3" t="n">
-        <v>804.6185656731816</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="N3" t="n">
-        <v>804.6185656731816</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="O3" t="n">
-        <v>804.6185656731816</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="P3" t="n">
         <v>1159.957753041174</v>
@@ -4486,52 +4486,52 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J4" t="n">
-        <v>120.5233537662982</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K4" t="n">
-        <v>269.215608100497</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L4" t="n">
-        <v>269.215608100497</v>
+        <v>452.1535503695694</v>
       </c>
       <c r="M4" t="n">
-        <v>689.2685070454004</v>
+        <v>872.2064493144727</v>
       </c>
       <c r="N4" t="n">
-        <v>1109.321405990304</v>
+        <v>1292.259348259376</v>
       </c>
       <c r="O4" t="n">
-        <v>1528.990655216085</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="P4" t="n">
-        <v>1528.990655216085</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q4" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="R4" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S4" t="n">
-        <v>1697.183430080417</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="T4" t="n">
-        <v>1451.303983658873</v>
+        <v>1270.644793662241</v>
       </c>
       <c r="U4" t="n">
-        <v>1172.870982911978</v>
+        <v>992.2117929153466</v>
       </c>
       <c r="V4" t="n">
-        <v>885.9154747824084</v>
+        <v>705.2562847857771</v>
       </c>
       <c r="W4" t="n">
-        <v>613.8890703687</v>
+        <v>433.2298803720686</v>
       </c>
       <c r="X4" t="n">
-        <v>368.4973157021125</v>
+        <v>187.8381257054811</v>
       </c>
       <c r="Y4" t="n">
-        <v>141.0776450162207</v>
+        <v>33.94366860160834</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>442.6066390714051</v>
+        <v>2187.941439413702</v>
       </c>
       <c r="C5" t="n">
-        <v>408.5045702952325</v>
+        <v>1749.798966597126</v>
       </c>
       <c r="D5" t="n">
-        <v>376.6351895100811</v>
+        <v>1313.88918177157</v>
       </c>
       <c r="E5" t="n">
-        <v>346.9008487087803</v>
+        <v>880.1144369298653</v>
       </c>
       <c r="F5" t="n">
-        <v>323.0738231583921</v>
+        <v>452.247007339073</v>
       </c>
       <c r="G5" t="n">
-        <v>323.0738231583921</v>
+        <v>50.84917596233694</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.84917596233694</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947694</v>
       </c>
       <c r="J5" t="n">
-        <v>33.94366860160834</v>
+        <v>485.6870740423948</v>
       </c>
       <c r="K5" t="n">
-        <v>453.9965675465116</v>
+        <v>485.6870740423948</v>
       </c>
       <c r="L5" t="n">
-        <v>874.0494664914149</v>
+        <v>1109.787858087172</v>
       </c>
       <c r="M5" t="n">
-        <v>874.0494664914149</v>
+        <v>1109.787858087172</v>
       </c>
       <c r="N5" t="n">
-        <v>874.0494664914149</v>
+        <v>1109.787858087172</v>
       </c>
       <c r="O5" t="n">
-        <v>1294.102365436318</v>
+        <v>1733.888642131949</v>
       </c>
       <c r="P5" t="n">
-        <v>1697.183430080417</v>
+        <v>1805.966478762195</v>
       </c>
       <c r="Q5" t="n">
-        <v>1697.183430080417</v>
+        <v>2352.46526472079</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473847</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2437.967455657684</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>2437.967455657684</v>
       </c>
       <c r="U5" t="n">
-        <v>1697.183430080417</v>
+        <v>2437.967455657684</v>
       </c>
       <c r="V5" t="n">
-        <v>1697.183430080417</v>
+        <v>2437.967455657684</v>
       </c>
       <c r="W5" t="n">
-        <v>1696.334796677349</v>
+        <v>2437.152405109121</v>
       </c>
       <c r="X5" t="n">
-        <v>1277.192333256659</v>
+        <v>2422.050345728836</v>
       </c>
       <c r="Y5" t="n">
-        <v>868.9062095563129</v>
+        <v>2417.804626068893</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>556.6041315807697</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>450.147670417412</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>355.0573815639653</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>260.936966890919</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>177.5531285070806</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>92.16803877326447</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947694</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>76.49605974993455</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>401.0543847161468</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>1025.155168760924</v>
       </c>
       <c r="L6" t="n">
-        <v>1224.671464618085</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="M6" t="n">
-        <v>1224.671464618085</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="N6" t="n">
-        <v>1224.671464618085</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="O6" t="n">
-        <v>1224.671464618085</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="P6" t="n">
-        <v>1580.010651986078</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1596.499369973946</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1713.672148068286</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1650.216710516669</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1520.038066847271</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1343.701519847239</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1144.584001909238</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>959.2612476424322</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>804.3938118813121</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>677.9080326605329</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>33.94366860160834</v>
+        <v>593.0357356940312</v>
       </c>
       <c r="C7" t="n">
-        <v>33.94366860160834</v>
+        <v>420.4740241772562</v>
       </c>
       <c r="D7" t="n">
-        <v>33.94366860160834</v>
+        <v>278.9945101244271</v>
       </c>
       <c r="E7" t="n">
-        <v>33.94366860160834</v>
+        <v>278.9945101244271</v>
       </c>
       <c r="F7" t="n">
-        <v>33.94366860160834</v>
+        <v>278.9945101244271</v>
       </c>
       <c r="G7" t="n">
-        <v>33.94366860160834</v>
+        <v>278.9945101244271</v>
       </c>
       <c r="H7" t="n">
-        <v>33.94366860160834</v>
+        <v>139.0923358148016</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947694</v>
       </c>
       <c r="J7" t="n">
-        <v>120.5233537662982</v>
+        <v>50.43238658947694</v>
       </c>
       <c r="K7" t="n">
-        <v>395.2818083374338</v>
+        <v>325.1908411606125</v>
       </c>
       <c r="L7" t="n">
-        <v>813.4916901053949</v>
+        <v>743.4007229285736</v>
       </c>
       <c r="M7" t="n">
-        <v>1181.483761245743</v>
+        <v>1202.884590109487</v>
       </c>
       <c r="N7" t="n">
-        <v>1181.483761245743</v>
+        <v>1645.143393267131</v>
       </c>
       <c r="O7" t="n">
-        <v>1181.483761245743</v>
+        <v>2064.812642492913</v>
       </c>
       <c r="P7" t="n">
-        <v>1528.990655216085</v>
+        <v>2412.319536463255</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473847</v>
       </c>
       <c r="R7" t="n">
-        <v>1675.765608785789</v>
+        <v>2500.201508179219</v>
       </c>
       <c r="S7" t="n">
-        <v>1516.524240083786</v>
+        <v>2340.960139477215</v>
       </c>
       <c r="T7" t="n">
-        <v>1516.524240083786</v>
+        <v>2095.080693055671</v>
       </c>
       <c r="U7" t="n">
-        <v>1238.091239336891</v>
+        <v>1816.647692308776</v>
       </c>
       <c r="V7" t="n">
-        <v>951.1357312073217</v>
+        <v>1529.692184179206</v>
       </c>
       <c r="W7" t="n">
-        <v>679.1093267936133</v>
+        <v>1257.665779765498</v>
       </c>
       <c r="X7" t="n">
-        <v>433.7175721270257</v>
+        <v>1012.27402509891</v>
       </c>
       <c r="Y7" t="n">
-        <v>206.297901441134</v>
+        <v>784.8543544130184</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>484.0636759001416</v>
+        <v>172.9340324416416</v>
       </c>
       <c r="C8" t="n">
-        <v>119.3744157384487</v>
+        <v>138.8319636654689</v>
       </c>
       <c r="D8" t="n">
-        <v>87.50503495329731</v>
+        <v>106.9625828803175</v>
       </c>
       <c r="E8" t="n">
-        <v>57.77069415199655</v>
+        <v>77.22824207901677</v>
       </c>
       <c r="F8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>33.94366860160834</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>453.9965675465116</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L8" t="n">
-        <v>874.0494664914149</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M8" t="n">
-        <v>874.0494664914149</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N8" t="n">
-        <v>874.0494664914149</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O8" t="n">
-        <v>1294.102365436318</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="P8" t="n">
-        <v>1697.183430080417</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q8" t="n">
-        <v>1697.183430080417</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>1697.183430080417</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="U8" t="n">
-        <v>1697.183430080417</v>
+        <v>2190.771296621483</v>
       </c>
       <c r="V8" t="n">
-        <v>1334.566480014244</v>
+        <v>1828.15434655531</v>
       </c>
       <c r="W8" t="n">
-        <v>1333.751429465681</v>
+        <v>1423.298891966343</v>
       </c>
       <c r="X8" t="n">
-        <v>1318.649370085396</v>
+        <v>1004.156428545654</v>
       </c>
       <c r="Y8" t="n">
-        <v>910.3632463850494</v>
+        <v>595.8703048453069</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>433.6589524295435</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>161.0644105192121</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>75.67932078539593</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>122.603617826933</v>
+        <v>741.4772326516127</v>
       </c>
       <c r="C10" t="n">
-        <v>122.603617826933</v>
+        <v>568.9155211348376</v>
       </c>
       <c r="D10" t="n">
-        <v>122.603617826933</v>
+        <v>403.0375283363603</v>
       </c>
       <c r="E10" t="n">
-        <v>122.603617826933</v>
+        <v>233.2795245870976</v>
       </c>
       <c r="F10" t="n">
-        <v>122.603617826933</v>
+        <v>56.57247054885377</v>
       </c>
       <c r="G10" t="n">
-        <v>122.603617826933</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H10" t="n">
-        <v>122.603617826933</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I10" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>89.90148899448771</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>89.90148899448771</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>509.954387939391</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>930.0072868842942</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1349.676536110076</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1697.183430080417</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1697.183430080417</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>1624.648575188572</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T10" t="n">
-        <v>1624.648575188572</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U10" t="n">
-        <v>1346.215574441677</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V10" t="n">
-        <v>1059.260066312108</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W10" t="n">
-        <v>787.2336618983993</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X10" t="n">
-        <v>541.8419072318118</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y10" t="n">
-        <v>314.4222365459201</v>
+        <v>933.2958513705998</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2522.969308202877</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C11" t="n">
-        <v>2084.8268353863</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D11" t="n">
-        <v>1648.917050560744</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E11" t="n">
-        <v>1215.142305719039</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F11" t="n">
-        <v>787.2748761282469</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G11" t="n">
-        <v>385.8770447515108</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H11" t="n">
-        <v>96.746890194727</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I11" t="n">
-        <v>96.33010082186701</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J11" t="n">
-        <v>531.5847882747848</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K11" t="n">
-        <v>1365.935080232963</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L11" t="n">
-        <v>2440.995046485822</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M11" t="n">
-        <v>2440.995046485822</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N11" t="n">
-        <v>2440.995046485822</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O11" t="n">
-        <v>3421.174713056128</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P11" t="n">
-        <v>4249.484587889524</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q11" t="n">
-        <v>4795.983373848119</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R11" t="n">
-        <v>4816.50504109335</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S11" t="n">
-        <v>4732.853167277187</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T11" t="n">
-        <v>4512.785940150226</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U11" t="n">
-        <v>4253.563637467242</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V11" t="n">
-        <v>3890.946687401069</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W11" t="n">
-        <v>3486.091232812102</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X11" t="n">
-        <v>3066.948769391413</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y11" t="n">
-        <v>2949.268878687784</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>602.5018458131598</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C12" t="n">
-        <v>496.0453846498021</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D12" t="n">
-        <v>400.9550957963554</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E12" t="n">
-        <v>306.8346811233091</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F12" t="n">
-        <v>223.4508427394707</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G12" t="n">
-        <v>138.0657530056545</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H12" t="n">
-        <v>96.33010082186701</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I12" t="n">
-        <v>122.3937739823246</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J12" t="n">
-        <v>446.952098948537</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K12" t="n">
-        <v>1101.658145574261</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L12" t="n">
-        <v>1101.658145574261</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M12" t="n">
-        <v>1101.658145574261</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N12" t="n">
-        <v>1101.658145574261</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O12" t="n">
-        <v>1101.658145574261</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P12" t="n">
-        <v>1101.658145574261</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q12" t="n">
-        <v>1642.397084206336</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R12" t="n">
-        <v>1759.569862300676</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S12" t="n">
-        <v>1696.114424749059</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T12" t="n">
-        <v>1565.935781079661</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U12" t="n">
-        <v>1389.599234079629</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V12" t="n">
-        <v>1190.481716141628</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W12" t="n">
-        <v>1005.158961874822</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X12" t="n">
-        <v>850.2915261137022</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y12" t="n">
-        <v>723.8057468929229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>946.8261378987982</v>
+        <v>1017.756527079655</v>
       </c>
       <c r="C13" t="n">
-        <v>774.2644263820232</v>
+        <v>845.1948155628801</v>
       </c>
       <c r="D13" t="n">
-        <v>608.3864335835459</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E13" t="n">
-        <v>438.6284298342832</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F13" t="n">
-        <v>261.9213757960393</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G13" t="n">
-        <v>96.33010082186701</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H13" t="n">
-        <v>96.33010082186701</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I13" t="n">
-        <v>96.33010082186701</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J13" t="n">
-        <v>182.9097859865568</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K13" t="n">
-        <v>457.6682405576923</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L13" t="n">
-        <v>875.8781223256534</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M13" t="n">
-        <v>1335.361989506566</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N13" t="n">
-        <v>1777.620792664211</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O13" t="n">
-        <v>2197.290041889992</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P13" t="n">
-        <v>2544.796935860334</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q13" t="n">
-        <v>2712.989710724667</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R13" t="n">
-        <v>2712.989710724667</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S13" t="n">
-        <v>2553.748342022663</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T13" t="n">
-        <v>2307.868895601118</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U13" t="n">
-        <v>2029.435894854224</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V13" t="n">
-        <v>1883.482586383973</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W13" t="n">
-        <v>1611.456181970265</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X13" t="n">
-        <v>1366.064427303677</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y13" t="n">
-        <v>1138.644756617785</v>
+        <v>1209.575145798642</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2316.014949022321</v>
+        <v>2528.900047651791</v>
       </c>
       <c r="C14" t="n">
-        <v>2084.8268353863</v>
+        <v>2090.757574835214</v>
       </c>
       <c r="D14" t="n">
-        <v>1648.917050560744</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E14" t="n">
-        <v>1215.142305719039</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F14" t="n">
-        <v>787.2748761282469</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G14" t="n">
-        <v>385.8770447515108</v>
+        <v>391.8077842004244</v>
       </c>
       <c r="H14" t="n">
-        <v>96.746890194727</v>
+        <v>102.6776296436406</v>
       </c>
       <c r="I14" t="n">
-        <v>96.33010082186701</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J14" t="n">
-        <v>531.5847882747848</v>
+        <v>537.5155277236976</v>
       </c>
       <c r="K14" t="n">
-        <v>1365.935080232963</v>
+        <v>1371.865819681876</v>
       </c>
       <c r="L14" t="n">
-        <v>2440.995046485822</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="M14" t="n">
-        <v>2440.995046485822</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="N14" t="n">
-        <v>2440.995046485822</v>
+        <v>2588.899621423629</v>
       </c>
       <c r="O14" t="n">
-        <v>3421.174713056128</v>
+        <v>3569.079287993935</v>
       </c>
       <c r="P14" t="n">
-        <v>4249.484587889524</v>
+        <v>4397.389162827331</v>
       </c>
       <c r="Q14" t="n">
-        <v>4795.983373848119</v>
+        <v>4943.887948785926</v>
       </c>
       <c r="R14" t="n">
-        <v>4816.50504109335</v>
+        <v>5113.042013538982</v>
       </c>
       <c r="S14" t="n">
-        <v>4816.50504109335</v>
+        <v>5029.390139722819</v>
       </c>
       <c r="T14" t="n">
-        <v>4596.437813966389</v>
+        <v>4809.322912595858</v>
       </c>
       <c r="U14" t="n">
-        <v>4337.215511283405</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V14" t="n">
-        <v>3974.598561217232</v>
+        <v>4187.483659846701</v>
       </c>
       <c r="W14" t="n">
-        <v>3569.743106628265</v>
+        <v>3782.628205257734</v>
       </c>
       <c r="X14" t="n">
-        <v>3150.600643207576</v>
+        <v>3363.485741837045</v>
       </c>
       <c r="Y14" t="n">
-        <v>2742.314519507229</v>
+        <v>2955.199618136699</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>602.5018458131598</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C15" t="n">
-        <v>496.0453846498021</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D15" t="n">
-        <v>400.9550957963554</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E15" t="n">
-        <v>306.8346811233091</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F15" t="n">
-        <v>223.4508427394707</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G15" t="n">
-        <v>138.0657530056545</v>
+        <v>143.9964924545672</v>
       </c>
       <c r="H15" t="n">
-        <v>96.33010082186701</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I15" t="n">
-        <v>122.3937739823246</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J15" t="n">
-        <v>446.952098948537</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K15" t="n">
-        <v>1101.658145574261</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L15" t="n">
-        <v>1101.658145574261</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M15" t="n">
-        <v>1101.658145574261</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N15" t="n">
-        <v>1101.658145574261</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O15" t="n">
-        <v>1101.658145574261</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P15" t="n">
-        <v>1101.658145574261</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q15" t="n">
-        <v>1642.397084206336</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R15" t="n">
-        <v>1759.569862300676</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S15" t="n">
-        <v>1696.114424749059</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T15" t="n">
-        <v>1565.935781079661</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U15" t="n">
-        <v>1389.599234079629</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V15" t="n">
-        <v>1190.481716141628</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W15" t="n">
-        <v>1005.158961874822</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X15" t="n">
-        <v>850.2915261137022</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y15" t="n">
-        <v>723.8057468929229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>805.8239382394796</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C16" t="n">
-        <v>633.2622267227046</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D16" t="n">
-        <v>608.3864335835459</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E16" t="n">
-        <v>438.6284298342832</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="F16" t="n">
-        <v>261.9213757960393</v>
+        <v>126.8499155856325</v>
       </c>
       <c r="G16" t="n">
-        <v>96.33010082186701</v>
+        <v>126.8499155856325</v>
       </c>
       <c r="H16" t="n">
-        <v>96.33010082186701</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I16" t="n">
-        <v>96.33010082186701</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J16" t="n">
-        <v>182.9097859865568</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K16" t="n">
-        <v>457.6682405576925</v>
+        <v>463.5989800066051</v>
       </c>
       <c r="L16" t="n">
-        <v>875.8781223256535</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M16" t="n">
-        <v>1335.361989506566</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N16" t="n">
-        <v>1777.620792664211</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O16" t="n">
-        <v>2197.290041889992</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P16" t="n">
-        <v>2544.796935860334</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q16" t="n">
-        <v>2712.989710724667</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R16" t="n">
-        <v>2712.989710724667</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S16" t="n">
-        <v>2553.748342022663</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T16" t="n">
-        <v>2307.868895601118</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U16" t="n">
-        <v>2029.435894854224</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V16" t="n">
-        <v>1742.480386724654</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W16" t="n">
-        <v>1470.453982310946</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X16" t="n">
-        <v>1225.062227644358</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y16" t="n">
-        <v>997.6425569584667</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="17">
@@ -5489,25 +5489,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C17" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835214</v>
       </c>
       <c r="D17" t="n">
-        <v>1654.847790009656</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E17" t="n">
-        <v>1221.073045167951</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771593</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004236</v>
       </c>
       <c r="H17" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436397</v>
       </c>
       <c r="I17" t="n">
         <v>102.2608402707796</v>
@@ -5525,40 +5525,40 @@
         <v>2446.925785934734</v>
       </c>
       <c r="N17" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O17" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P17" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R17" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S17" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T17" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U17" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V17" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W17" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837045</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="18">
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>811.7546776883919</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C19" t="n">
-        <v>780.1951658309358</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D19" t="n">
-        <v>614.3171730324585</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E19" t="n">
-        <v>444.5591692831958</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="F19" t="n">
-        <v>267.852115244952</v>
+        <v>126.8499155856325</v>
       </c>
       <c r="G19" t="n">
         <v>102.2608402707796</v>
@@ -5707,13 +5707,13 @@
         <v>2035.366634303136</v>
       </c>
       <c r="V19" t="n">
-        <v>1748.411126173567</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W19" t="n">
         <v>1476.384721759858</v>
       </c>
       <c r="X19" t="n">
-        <v>1230.992967093271</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y19" t="n">
         <v>1003.573296407379</v>
@@ -5729,7 +5729,7 @@
         <v>2528.900047651789</v>
       </c>
       <c r="C20" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D20" t="n">
         <v>1654.847790009657</v>
@@ -5738,61 +5738,61 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771602</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004241</v>
       </c>
       <c r="H20" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436397</v>
       </c>
       <c r="I20" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J20" t="n">
-        <v>537.5155277236975</v>
+        <v>537.5155277236976</v>
       </c>
       <c r="K20" t="n">
-        <v>1371.865819681875</v>
+        <v>1371.865819681876</v>
       </c>
       <c r="L20" t="n">
-        <v>2446.925785934734</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="M20" t="n">
-        <v>2588.899621423627</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="N20" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423629</v>
       </c>
       <c r="O20" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993935</v>
       </c>
       <c r="P20" t="n">
-        <v>4397.38916282733</v>
+        <v>4397.389162827331</v>
       </c>
       <c r="Q20" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785926</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538982</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722819</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595858</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W20" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y20" t="n">
         <v>2955.199618136697</v>
@@ -5820,10 +5820,10 @@
         <v>229.3815821883833</v>
       </c>
       <c r="G21" t="n">
-        <v>143.9964924545671</v>
+        <v>143.9964924545672</v>
       </c>
       <c r="H21" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I21" t="n">
         <v>128.3245134312372</v>
@@ -5884,34 +5884,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>952.7568773477105</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C22" t="n">
-        <v>780.1951658309358</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D22" t="n">
-        <v>614.3171730324585</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E22" t="n">
-        <v>444.5591692831958</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="F22" t="n">
-        <v>267.852115244952</v>
+        <v>126.8499155856325</v>
       </c>
       <c r="G22" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="H22" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I22" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J22" t="n">
         <v>188.8405254354695</v>
       </c>
       <c r="K22" t="n">
-        <v>463.598980006605</v>
+        <v>463.5989800066051</v>
       </c>
       <c r="L22" t="n">
         <v>881.8088617745661</v>
@@ -5944,16 +5944,16 @@
         <v>2035.366634303136</v>
       </c>
       <c r="V22" t="n">
-        <v>1748.411126173567</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W22" t="n">
         <v>1476.384721759858</v>
       </c>
       <c r="X22" t="n">
-        <v>1230.992967093271</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y22" t="n">
-        <v>1144.575496066698</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="23">
@@ -5969,19 +5969,19 @@
         <v>2090.757574835212</v>
       </c>
       <c r="D23" t="n">
-        <v>1654.847790009656</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E23" t="n">
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771594</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
@@ -5996,7 +5996,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M23" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N23" t="n">
         <v>2588.899621423627</v>
@@ -6020,10 +6020,10 @@
         <v>4809.322912595856</v>
       </c>
       <c r="U23" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V23" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W23" t="n">
         <v>3782.628205257733</v>
@@ -6121,16 +6121,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>952.7568773477109</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C25" t="n">
-        <v>780.1951658309358</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D25" t="n">
-        <v>614.3171730324585</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E25" t="n">
-        <v>444.5591692831958</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F25" t="n">
         <v>267.852115244952</v>
@@ -6175,19 +6175,19 @@
         <v>2559.679081471576</v>
       </c>
       <c r="T25" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U25" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V25" t="n">
-        <v>1889.413325832886</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W25" t="n">
-        <v>1617.386921419177</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X25" t="n">
-        <v>1371.99516675259</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y25" t="n">
         <v>1144.575496066698</v>
@@ -6409,10 +6409,10 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2700.681281130894</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T28" t="n">
-        <v>2454.801834709349</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U28" t="n">
         <v>2176.368833962455</v>
@@ -6449,13 +6449,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.20561557716</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004238</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436401</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
@@ -6470,7 +6470,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M29" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N29" t="n">
         <v>2588.899621423627</v>
@@ -6595,13 +6595,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>952.7568773477109</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C31" t="n">
-        <v>780.1951658309358</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D31" t="n">
-        <v>614.3171730324585</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E31" t="n">
         <v>444.5591692831957</v>
@@ -6692,7 +6692,7 @@
         <v>391.8077842004232</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
@@ -6832,16 +6832,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>952.7568773477109</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C34" t="n">
-        <v>780.1951658309358</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D34" t="n">
-        <v>614.3171730324585</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E34" t="n">
-        <v>444.5591692831958</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F34" t="n">
         <v>267.852115244952</v>
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2511.083736995632</v>
+        <v>2528.900047651791</v>
       </c>
       <c r="C35" t="n">
-        <v>2075.708016625512</v>
+        <v>2090.757574835214</v>
       </c>
       <c r="D35" t="n">
-        <v>1642.564984246413</v>
+        <v>1654.847790009659</v>
       </c>
       <c r="E35" t="n">
-        <v>1211.556991851165</v>
+        <v>1221.073045167954</v>
       </c>
       <c r="F35" t="n">
-        <v>786.4563147068297</v>
+        <v>793.2056155771616</v>
       </c>
       <c r="G35" t="n">
-        <v>387.8252357765505</v>
+        <v>391.8077842004254</v>
       </c>
       <c r="H35" t="n">
-        <v>101.4618336662234</v>
+        <v>102.6776296436417</v>
       </c>
       <c r="I35" t="n">
-        <v>101.4618336662234</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J35" t="n">
-        <v>536.7165211191412</v>
+        <v>537.5155277236976</v>
       </c>
       <c r="K35" t="n">
-        <v>1371.066813077319</v>
+        <v>1371.865819681876</v>
       </c>
       <c r="L35" t="n">
-        <v>2446.126779330178</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="M35" t="n">
-        <v>2548.949291195816</v>
+        <v>3603.973621145286</v>
       </c>
       <c r="N35" t="n">
-        <v>2548.949291195816</v>
+        <v>3603.973621145286</v>
       </c>
       <c r="O35" t="n">
-        <v>3529.128957766122</v>
+        <v>3603.973621145286</v>
       </c>
       <c r="P35" t="n">
-        <v>4357.438832599518</v>
+        <v>4397.389162827331</v>
       </c>
       <c r="Q35" t="n">
-        <v>4903.937618558113</v>
+        <v>4943.887948785926</v>
       </c>
       <c r="R35" t="n">
-        <v>5073.09168331117</v>
+        <v>5113.042013538982</v>
       </c>
       <c r="S35" t="n">
-        <v>4992.206561941463</v>
+        <v>5029.390139722819</v>
       </c>
       <c r="T35" t="n">
-        <v>4774.906087260959</v>
+        <v>4809.322912595858</v>
       </c>
       <c r="U35" t="n">
-        <v>4518.450537024432</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V35" t="n">
-        <v>4158.600339404716</v>
+        <v>4187.483659846701</v>
       </c>
       <c r="W35" t="n">
-        <v>3756.511637262206</v>
+        <v>3782.628205257734</v>
       </c>
       <c r="X35" t="n">
-        <v>3340.135926287973</v>
+        <v>3363.485741837045</v>
       </c>
       <c r="Y35" t="n">
-        <v>2934.616555034083</v>
+        <v>2955.199618136699</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>607.6335786575162</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C36" t="n">
-        <v>501.1771174941585</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D36" t="n">
-        <v>406.0868286407118</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E36" t="n">
-        <v>311.9664139676655</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F36" t="n">
-        <v>228.5825755838271</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G36" t="n">
-        <v>143.1974858500109</v>
+        <v>143.9964924545672</v>
       </c>
       <c r="H36" t="n">
-        <v>101.4618336662234</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I36" t="n">
-        <v>127.525506826681</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J36" t="n">
-        <v>452.0838317928934</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K36" t="n">
-        <v>1106.789878418617</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L36" t="n">
-        <v>1106.789878418617</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M36" t="n">
-        <v>1106.789878418617</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N36" t="n">
-        <v>1106.789878418617</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O36" t="n">
-        <v>1106.789878418617</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P36" t="n">
-        <v>1106.789878418617</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q36" t="n">
-        <v>1647.528817050693</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R36" t="n">
-        <v>1764.701595145032</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S36" t="n">
-        <v>1701.246157593415</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T36" t="n">
-        <v>1571.067513924017</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U36" t="n">
-        <v>1394.730966923985</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V36" t="n">
-        <v>1195.613448985985</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W36" t="n">
-        <v>1010.290694719179</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X36" t="n">
-        <v>855.4232589580586</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y36" t="n">
-        <v>728.9374797372793</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1111.798422689934</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C37" t="n">
-        <v>991.3577680825896</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D37" t="n">
-        <v>828.246527730569</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E37" t="n">
-        <v>661.255276427763</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F37" t="n">
-        <v>487.3149748359758</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G37" t="n">
-        <v>324.4904523082602</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H37" t="n">
-        <v>187.3550304450914</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I37" t="n">
-        <v>101.4618336662234</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J37" t="n">
-        <v>190.7532129036855</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K37" t="n">
-        <v>468.2233615475932</v>
+        <v>463.5989800066051</v>
       </c>
       <c r="L37" t="n">
-        <v>889.1449373883264</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M37" t="n">
-        <v>1351.340498642011</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N37" t="n">
-        <v>1796.310995872429</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O37" t="n">
-        <v>2218.691939170982</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P37" t="n">
-        <v>2568.910527214096</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q37" t="n">
-        <v>2739.8149961512</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>2721.16392730303</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S37" t="n">
-        <v>2564.689311047483</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T37" t="n">
-        <v>2321.576617072395</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U37" t="n">
-        <v>2321.576617072395</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V37" t="n">
-        <v>2037.387861389282</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W37" t="n">
-        <v>1768.12820942203</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X37" t="n">
-        <v>1525.503207201899</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y37" t="n">
-        <v>1300.850288962464</v>
+        <v>1209.575145798642</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2511.083736995632</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C38" t="n">
-        <v>2075.708016625512</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D38" t="n">
-        <v>1642.564984246413</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E38" t="n">
-        <v>1211.556991851165</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>786.4563147068299</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G38" t="n">
-        <v>387.8252357765505</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H38" t="n">
-        <v>101.4618336662234</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I38" t="n">
-        <v>101.4618336662234</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J38" t="n">
-        <v>536.7165211191412</v>
+        <v>537.5155277236976</v>
       </c>
       <c r="K38" t="n">
-        <v>1371.066813077319</v>
+        <v>1371.865819681876</v>
       </c>
       <c r="L38" t="n">
-        <v>2446.126779330178</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="M38" t="n">
-        <v>2446.126779330178</v>
+        <v>2588.899621423629</v>
       </c>
       <c r="N38" t="n">
-        <v>2548.949291195816</v>
+        <v>2588.899621423629</v>
       </c>
       <c r="O38" t="n">
-        <v>3529.128957766122</v>
+        <v>3569.079287993935</v>
       </c>
       <c r="P38" t="n">
-        <v>4357.438832599518</v>
+        <v>4397.389162827331</v>
       </c>
       <c r="Q38" t="n">
-        <v>4903.937618558113</v>
+        <v>4943.887948785926</v>
       </c>
       <c r="R38" t="n">
-        <v>5073.09168331117</v>
+        <v>5113.042013538982</v>
       </c>
       <c r="S38" t="n">
-        <v>4992.206561941463</v>
+        <v>5029.390139722819</v>
       </c>
       <c r="T38" t="n">
-        <v>4774.906087260959</v>
+        <v>4809.322912595858</v>
       </c>
       <c r="U38" t="n">
-        <v>4518.450537024432</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V38" t="n">
-        <v>4158.600339404716</v>
+        <v>4187.483659846701</v>
       </c>
       <c r="W38" t="n">
-        <v>3756.511637262205</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X38" t="n">
-        <v>3340.135926287973</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y38" t="n">
-        <v>2934.616555034083</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>607.6335786575162</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C39" t="n">
-        <v>501.1771174941585</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D39" t="n">
-        <v>406.0868286407118</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E39" t="n">
-        <v>311.9664139676655</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F39" t="n">
-        <v>228.5825755838271</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G39" t="n">
-        <v>143.1974858500109</v>
+        <v>143.9964924545672</v>
       </c>
       <c r="H39" t="n">
-        <v>101.4618336662234</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I39" t="n">
-        <v>127.525506826681</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J39" t="n">
-        <v>452.0838317928934</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K39" t="n">
-        <v>1106.789878418617</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L39" t="n">
-        <v>1106.789878418617</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M39" t="n">
-        <v>1106.789878418617</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N39" t="n">
-        <v>1106.789878418617</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O39" t="n">
-        <v>1106.789878418617</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P39" t="n">
-        <v>1106.789878418617</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q39" t="n">
-        <v>1647.528817050693</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R39" t="n">
-        <v>1764.701595145032</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S39" t="n">
-        <v>1701.246157593415</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T39" t="n">
-        <v>1571.067513924017</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U39" t="n">
-        <v>1394.730966923985</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V39" t="n">
-        <v>1195.613448985985</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W39" t="n">
-        <v>1010.290694719179</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X39" t="n">
-        <v>855.4232589580586</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y39" t="n">
-        <v>728.9374797372793</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1161.152727152908</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C40" t="n">
-        <v>991.3577680825896</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D40" t="n">
-        <v>828.246527730569</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E40" t="n">
-        <v>661.255276427763</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F40" t="n">
-        <v>487.3149748359758</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G40" t="n">
-        <v>324.4904523082602</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="H40" t="n">
-        <v>187.3550304450914</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I40" t="n">
-        <v>101.4618336662234</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J40" t="n">
-        <v>190.7532129036855</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K40" t="n">
-        <v>468.2233615475932</v>
+        <v>463.5989800066051</v>
       </c>
       <c r="L40" t="n">
-        <v>889.1449373883264</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M40" t="n">
-        <v>1351.340498642012</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N40" t="n">
-        <v>1796.310995872429</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O40" t="n">
-        <v>2218.691939170982</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P40" t="n">
-        <v>2568.910527214096</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q40" t="n">
-        <v>2739.8149961512</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>2721.163927303029</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2564.689311047483</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T40" t="n">
-        <v>2321.576617072395</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U40" t="n">
-        <v>2045.910368771957</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V40" t="n">
-        <v>1761.721613088844</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W40" t="n">
-        <v>1492.461961121592</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X40" t="n">
-        <v>1492.461961121592</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y40" t="n">
-        <v>1267.809042882157</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2505.15299754672</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C41" t="n">
-        <v>2069.7772771766</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D41" t="n">
-        <v>1636.634244797501</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E41" t="n">
-        <v>1205.626252402253</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F41" t="n">
-        <v>780.5255752579178</v>
+        <v>793.2056155771596</v>
       </c>
       <c r="G41" t="n">
-        <v>381.8944963276379</v>
+        <v>391.8077842004235</v>
       </c>
       <c r="H41" t="n">
-        <v>95.53109421731078</v>
+        <v>102.6776296436397</v>
       </c>
       <c r="I41" t="n">
-        <v>95.53109421731078</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J41" t="n">
-        <v>530.7857816702286</v>
+        <v>537.5155277236976</v>
       </c>
       <c r="K41" t="n">
-        <v>1346.506417250383</v>
+        <v>1371.865819681876</v>
       </c>
       <c r="L41" t="n">
-        <v>2421.566383503242</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="M41" t="n">
-        <v>2421.566383503242</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="N41" t="n">
-        <v>2421.566383503242</v>
+        <v>2588.899621423629</v>
       </c>
       <c r="O41" t="n">
-        <v>3401.746050073548</v>
+        <v>3569.079287993935</v>
       </c>
       <c r="P41" t="n">
-        <v>4230.055924906945</v>
+        <v>4397.389162827331</v>
       </c>
       <c r="Q41" t="n">
-        <v>4776.554710865539</v>
+        <v>4943.887948785926</v>
       </c>
       <c r="R41" t="n">
-        <v>4776.554710865539</v>
+        <v>5113.042013538982</v>
       </c>
       <c r="S41" t="n">
-        <v>4695.669589495833</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T41" t="n">
-        <v>4478.369114815328</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U41" t="n">
-        <v>4478.369114815328</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V41" t="n">
-        <v>4152.669599955804</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W41" t="n">
-        <v>3750.580897813294</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X41" t="n">
-        <v>3334.205186839061</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y41" t="n">
-        <v>2928.685815585171</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>601.7028392086036</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C42" t="n">
-        <v>495.2463780452459</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D42" t="n">
-        <v>400.1560891917991</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E42" t="n">
-        <v>306.0356745187528</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F42" t="n">
-        <v>222.6518361349144</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G42" t="n">
-        <v>137.2667464010983</v>
+        <v>143.9964924545672</v>
       </c>
       <c r="H42" t="n">
-        <v>95.53109421731078</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I42" t="n">
-        <v>121.5947673777684</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J42" t="n">
-        <v>446.1530923439807</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K42" t="n">
-        <v>1100.859138969704</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L42" t="n">
-        <v>1100.859138969704</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M42" t="n">
-        <v>1100.859138969704</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N42" t="n">
-        <v>1100.859138969704</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O42" t="n">
-        <v>1100.859138969704</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P42" t="n">
-        <v>1100.859138969704</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q42" t="n">
-        <v>1641.59807760178</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R42" t="n">
-        <v>1758.77085569612</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S42" t="n">
-        <v>1695.315418144503</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T42" t="n">
-        <v>1565.136774475104</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U42" t="n">
-        <v>1388.800227475073</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V42" t="n">
-        <v>1189.682709537072</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W42" t="n">
-        <v>1004.359955270266</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X42" t="n">
-        <v>849.4925195091459</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y42" t="n">
-        <v>723.0067402883667</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1155.221987703995</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C43" t="n">
-        <v>985.427028633677</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="D43" t="n">
-        <v>822.3157882816564</v>
+        <v>645.8766848899141</v>
       </c>
       <c r="E43" t="n">
-        <v>655.3245369788502</v>
+        <v>476.1186811406514</v>
       </c>
       <c r="F43" t="n">
-        <v>481.3842353870632</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G43" t="n">
-        <v>318.5597128593475</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H43" t="n">
-        <v>181.4242909961787</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I43" t="n">
-        <v>95.53109421731078</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J43" t="n">
-        <v>184.8224734547728</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K43" t="n">
-        <v>462.2926220986806</v>
+        <v>463.5989800066051</v>
       </c>
       <c r="L43" t="n">
-        <v>883.214197939414</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M43" t="n">
-        <v>1345.409759193099</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N43" t="n">
-        <v>1790.380256423516</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O43" t="n">
-        <v>2212.76119972207</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P43" t="n">
-        <v>2562.979787765184</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q43" t="n">
-        <v>2733.884256702288</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R43" t="n">
-        <v>2715.233187854117</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S43" t="n">
-        <v>2558.758571598571</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T43" t="n">
-        <v>2315.645877623483</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U43" t="n">
-        <v>2039.979629323044</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V43" t="n">
-        <v>2039.979629323044</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W43" t="n">
-        <v>1770.719977355792</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X43" t="n">
-        <v>1528.094975135661</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y43" t="n">
-        <v>1344.273853976526</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2295.431885919707</v>
+        <v>2528.900047651791</v>
       </c>
       <c r="C44" t="n">
-        <v>1860.056165549587</v>
+        <v>2090.757574835214</v>
       </c>
       <c r="D44" t="n">
-        <v>1636.634244797501</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E44" t="n">
-        <v>1205.626252402253</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F44" t="n">
-        <v>780.5255752579172</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G44" t="n">
-        <v>381.8944963276379</v>
+        <v>391.8077842004241</v>
       </c>
       <c r="H44" t="n">
-        <v>95.53109421731078</v>
+        <v>102.6776296436397</v>
       </c>
       <c r="I44" t="n">
-        <v>95.53109421731078</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J44" t="n">
-        <v>530.7857816702286</v>
+        <v>537.5155277236976</v>
       </c>
       <c r="K44" t="n">
-        <v>1346.506417250383</v>
+        <v>1371.865819681876</v>
       </c>
       <c r="L44" t="n">
-        <v>2421.566383503242</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="M44" t="n">
-        <v>2421.566383503242</v>
+        <v>2588.899621423629</v>
       </c>
       <c r="N44" t="n">
-        <v>2421.566383503242</v>
+        <v>2588.899621423629</v>
       </c>
       <c r="O44" t="n">
-        <v>3401.746050073548</v>
+        <v>3569.079287993935</v>
       </c>
       <c r="P44" t="n">
-        <v>4230.055924906945</v>
+        <v>4397.389162827331</v>
       </c>
       <c r="Q44" t="n">
-        <v>4776.554710865539</v>
+        <v>4943.887948785926</v>
       </c>
       <c r="R44" t="n">
-        <v>4776.554710865539</v>
+        <v>5113.042013538982</v>
       </c>
       <c r="S44" t="n">
-        <v>4776.554710865539</v>
+        <v>5029.390139722819</v>
       </c>
       <c r="T44" t="n">
-        <v>4559.254236185035</v>
+        <v>4809.322912595858</v>
       </c>
       <c r="U44" t="n">
-        <v>4302.798685948508</v>
+        <v>4550.100609912875</v>
       </c>
       <c r="V44" t="n">
-        <v>3942.948488328791</v>
+        <v>4187.483659846702</v>
       </c>
       <c r="W44" t="n">
-        <v>3540.859786186281</v>
+        <v>3782.628205257735</v>
       </c>
       <c r="X44" t="n">
-        <v>3124.484075212049</v>
+        <v>3363.485741837046</v>
       </c>
       <c r="Y44" t="n">
-        <v>2718.964703958159</v>
+        <v>2955.199618136699</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>601.7028392086036</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C45" t="n">
-        <v>495.2463780452459</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D45" t="n">
-        <v>400.1560891917991</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E45" t="n">
-        <v>306.0356745187528</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F45" t="n">
-        <v>222.6518361349144</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G45" t="n">
-        <v>137.2667464010983</v>
+        <v>143.9964924545672</v>
       </c>
       <c r="H45" t="n">
-        <v>95.53109421731078</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I45" t="n">
-        <v>121.5947673777684</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J45" t="n">
-        <v>446.1530923439807</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K45" t="n">
-        <v>1100.859138969704</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L45" t="n">
-        <v>1100.859138969704</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M45" t="n">
-        <v>1100.859138969704</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N45" t="n">
-        <v>1100.859138969704</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O45" t="n">
-        <v>1100.859138969704</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P45" t="n">
-        <v>1100.859138969704</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q45" t="n">
-        <v>1641.59807760178</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R45" t="n">
-        <v>1758.77085569612</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S45" t="n">
-        <v>1695.315418144503</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T45" t="n">
-        <v>1565.136774475104</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U45" t="n">
-        <v>1388.800227475073</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V45" t="n">
-        <v>1189.682709537072</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W45" t="n">
-        <v>1004.359955270266</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X45" t="n">
-        <v>849.4925195091459</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y45" t="n">
-        <v>723.0067402883667</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1155.221987703995</v>
+        <v>915.9519976190925</v>
       </c>
       <c r="C46" t="n">
-        <v>985.4270286336771</v>
+        <v>743.3902861023174</v>
       </c>
       <c r="D46" t="n">
-        <v>822.3157882816564</v>
+        <v>577.5122933038401</v>
       </c>
       <c r="E46" t="n">
-        <v>655.3245369788503</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="F46" t="n">
-        <v>481.3842353870632</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G46" t="n">
-        <v>318.5597128593475</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H46" t="n">
-        <v>181.4242909961787</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I46" t="n">
-        <v>95.53109421731078</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J46" t="n">
-        <v>184.8224734547728</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K46" t="n">
-        <v>462.2926220986806</v>
+        <v>463.5989800066051</v>
       </c>
       <c r="L46" t="n">
-        <v>883.2141979394139</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M46" t="n">
-        <v>1345.409759193099</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N46" t="n">
-        <v>1790.380256423516</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O46" t="n">
-        <v>2212.76119972207</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P46" t="n">
-        <v>2562.979787765184</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q46" t="n">
-        <v>2733.884256702289</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R46" t="n">
-        <v>2733.884256702289</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S46" t="n">
-        <v>2577.409640446741</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T46" t="n">
-        <v>2334.296946471653</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U46" t="n">
-        <v>2058.630698171215</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V46" t="n">
-        <v>2058.630698171215</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W46" t="n">
-        <v>1789.371046203963</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X46" t="n">
-        <v>1546.746043983832</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y46" t="n">
-        <v>1344.273853976526</v>
+        <v>1107.77061633808</v>
       </c>
     </row>
   </sheetData>
@@ -7979,10 +7979,10 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>424.2958575201043</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -7994,7 +7994,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>424.2958575201044</v>
@@ -8058,22 +8058,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>358.9284720888815</v>
+      </c>
+      <c r="P3" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>358.9284720888814</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
@@ -8134,28 +8134,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>150.1941962971706</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N4" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512944</v>
+        <v>409.0142240616578</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8213,13 +8213,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>424.2958575201043</v>
+        <v>630.4048323684616</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -8228,16 +8228,16 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201044</v>
+        <v>630.4048323684617</v>
       </c>
       <c r="P5" t="n">
-        <v>407.1525905495951</v>
+        <v>72.80589558610768</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8295,10 +8295,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>630.4048323684617</v>
       </c>
       <c r="L6" t="n">
-        <v>424.2958575201043</v>
+        <v>30.91440664742095</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8310,10 +8310,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>358.9284720888816</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8371,7 +8371,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
@@ -8380,19 +8380,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>371.7091627680287</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821538</v>
+        <v>110.4038313238307</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8450,13 +8450,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8465,16 +8465,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>407.1525905495951</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8532,10 +8532,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8550,7 +8550,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8608,19 +8608,19 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>56.52305090189834</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201043</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
         <v>423.9083325512944</v>
@@ -8629,7 +8629,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8696,7 +8696,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -8711,7 +8711,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
-        <v>20.72895681336468</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8769,13 +8769,13 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -8936,7 +8936,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>143.407914635246</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831379</v>
@@ -8948,7 +8948,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>20.72895681336468</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9006,22 +9006,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -9173,7 +9173,7 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>143.4079146352447</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
@@ -9407,10 +9407,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>143.407914635246</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
@@ -9644,10 +9644,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N23" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
@@ -10118,10 +10118,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N29" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
@@ -10592,16 +10592,16 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>103.8611230966035</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>990.0804712831379</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>836.6766412458549</v>
+        <v>801.4298400828739</v>
       </c>
       <c r="Q35" t="n">
         <v>552.0189757157522</v>
@@ -10665,7 +10665,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10829,10 +10829,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>143.407914635246</v>
       </c>
       <c r="N38" t="n">
-        <v>103.8611230966035</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
@@ -10902,7 +10902,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -11060,7 +11060,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>823.9602379597516</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
         <v>1085.919157831171</v>
@@ -11069,7 +11069,7 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>143.407914635246</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
@@ -11081,7 +11081,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11139,7 +11139,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11297,13 +11297,13 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>823.9602379597516</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>143.407914635246</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11376,7 +11376,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -23324,7 +23324,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>287.7001706667509</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23419,7 +23419,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>161.9268490649757</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23431,10 +23431,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23473,7 +23473,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>139.592177662726</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="14">
@@ -23495,7 +23495,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>204.8848155887486</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23543,7 +23543,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23656,7 +23656,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>139.5921776627255</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23665,10 +23665,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>114.1599680048249</v>
       </c>
       <c r="I16" t="n">
         <v>87.77334973307141</v>
@@ -23890,7 +23890,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>139.5921776627254</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23902,7 +23902,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="H19" t="n">
         <v>138.5031525665292</v>
@@ -24139,7 +24139,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="H22" t="n">
         <v>138.5031525665292</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>139.5921776627257</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24415,7 +24415,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>139.5921776627261</v>
       </c>
     </row>
     <row r="26">
@@ -24649,7 +24649,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>139.5921776627254</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24886,7 +24886,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>139.5921776627253</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25123,7 +25123,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>139.592177662726</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25309,10 +25309,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>161.9268490649757</v>
       </c>
       <c r="C37" t="n">
-        <v>48.8607614183444</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25366,7 +25366,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>272.9095858174336</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25378,7 +25378,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="38">
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>81.57159503784879</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25564,10 +25564,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25603,7 +25603,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25612,7 +25612,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>240.1987521979295</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25682,10 +25682,10 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>253.8909947341611</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>33.80917593259066</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25786,7 +25786,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25795,7 +25795,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>107.2592358276481</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25804,7 +25804,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25843,7 +25843,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>281.3468681262817</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25852,7 +25852,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>40.42347910949636</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25868,7 +25868,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>207.6239005107422</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25913,7 +25913,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>80.07627015600923</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -26032,7 +26032,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26041,7 +26041,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>18.4645581596897</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26080,7 +26080,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>281.3468681262817</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26089,7 +26089,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>21.95892094980678</v>
+        <v>103.155346731394</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>447314.2956983803</v>
+        <v>453655.4569100179</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>447314.2956983803</v>
+        <v>454797.1969329807</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>441729.4963334881</v>
+        <v>461802.686849012</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>441729.4963334882</v>
+        <v>461802.6868490119</v>
       </c>
     </row>
     <row r="7">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>462820.3904390443</v>
+        <v>461802.686849012</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>462820.3904390443</v>
+        <v>461802.686849012</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>442747.1999235205</v>
+        <v>461802.686849012</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>442747.1999235206</v>
+        <v>461802.6868490119</v>
       </c>
     </row>
   </sheetData>
@@ -26317,22 +26317,22 @@
         <v>509339.9538958881</v>
       </c>
       <c r="D2" t="n">
-        <v>509339.9538958882</v>
+        <v>509339.9538958881</v>
       </c>
       <c r="E2" t="n">
-        <v>478758.8180246651</v>
+        <v>500514.7049304848</v>
       </c>
       <c r="F2" t="n">
-        <v>478758.8180246652</v>
+        <v>500514.7049304849</v>
       </c>
       <c r="G2" t="n">
-        <v>500514.7049304848</v>
+        <v>500514.7049304849</v>
       </c>
       <c r="H2" t="n">
-        <v>500514.7049304848</v>
+        <v>500514.7049304849</v>
       </c>
       <c r="I2" t="n">
-        <v>500514.7049304848</v>
+        <v>500514.7049304847</v>
       </c>
       <c r="J2" t="n">
         <v>500514.7049304848</v>
@@ -26344,16 +26344,16 @@
         <v>500514.7049304848</v>
       </c>
       <c r="M2" t="n">
-        <v>502003.5899789123</v>
+        <v>500514.7049304848</v>
       </c>
       <c r="N2" t="n">
-        <v>502003.5899789123</v>
+        <v>500514.7049304848</v>
       </c>
       <c r="O2" t="n">
-        <v>480247.7030730924</v>
+        <v>500514.7049304849</v>
       </c>
       <c r="P2" t="n">
-        <v>480247.7030730926</v>
+        <v>500514.7049304848</v>
       </c>
     </row>
     <row r="3">
@@ -26366,19 +26366,19 @@
         <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>66587.76789501558</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>11527.59554998333</v>
       </c>
       <c r="E3" t="n">
-        <v>232840.2019932549</v>
+        <v>182355.1092210498</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>20319.08402319015</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449903</v>
+        <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>53045.85463877205</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>9392.301726622774</v>
       </c>
       <c r="M3" t="n">
-        <v>194039.1781017876</v>
+        <v>152200.1709379877</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,22 +26418,22 @@
         <v>187564.5330558133</v>
       </c>
       <c r="C4" t="n">
-        <v>187564.5330558133</v>
+        <v>146735.1647947854</v>
       </c>
       <c r="D4" t="n">
-        <v>187564.5330558133</v>
+        <v>139383.7472389045</v>
       </c>
       <c r="E4" t="n">
-        <v>39335.45940949836</v>
+        <v>41122.95192991272</v>
       </c>
       <c r="F4" t="n">
-        <v>39335.45940949836</v>
+        <v>41122.95192991263</v>
       </c>
       <c r="G4" t="n">
-        <v>41122.95192991271</v>
+        <v>41122.95192991263</v>
       </c>
       <c r="H4" t="n">
-        <v>41122.95192991271</v>
+        <v>41122.95192991267</v>
       </c>
       <c r="I4" t="n">
         <v>41122.95192991271</v>
@@ -26442,22 +26442,22 @@
         <v>41122.95192991271</v>
       </c>
       <c r="K4" t="n">
-        <v>41122.95192991276</v>
+        <v>41122.95192991271</v>
       </c>
       <c r="L4" t="n">
-        <v>41122.95192991276</v>
+        <v>41122.95192991271</v>
       </c>
       <c r="M4" t="n">
-        <v>43544.40790107858</v>
+        <v>41122.95192991272</v>
       </c>
       <c r="N4" t="n">
-        <v>43544.40790107858</v>
+        <v>41122.95192991272</v>
       </c>
       <c r="O4" t="n">
-        <v>41756.91538066422</v>
+        <v>41122.9519299126</v>
       </c>
       <c r="P4" t="n">
-        <v>41756.91538066422</v>
+        <v>41122.95192991268</v>
       </c>
     </row>
     <row r="5">
@@ -26470,46 +26470,46 @@
         <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>71956.21380800247</v>
       </c>
       <c r="D5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>73210.87662461892</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="F5" t="n">
-        <v>73210.87662461892</v>
+        <v>77718.23860579253</v>
       </c>
       <c r="G5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="H5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579253</v>
       </c>
       <c r="I5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="J5" t="n">
         <v>77718.23860579252</v>
       </c>
       <c r="K5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="L5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="M5" t="n">
-        <v>77341.26571663673</v>
+        <v>77718.23860579253</v>
       </c>
       <c r="N5" t="n">
-        <v>77341.26571663673</v>
+        <v>77718.23860579253</v>
       </c>
       <c r="O5" t="n">
-        <v>72833.90373546314</v>
+        <v>77718.23860579253</v>
       </c>
       <c r="P5" t="n">
-        <v>72833.90373546314</v>
+        <v>77718.23860579253</v>
       </c>
     </row>
     <row r="6">
@@ -26522,46 +26522,46 @@
         <v>120159.3320431426</v>
       </c>
       <c r="C6" t="n">
-        <v>262350.6327028524</v>
+        <v>224060.8073980846</v>
       </c>
       <c r="D6" t="n">
-        <v>262350.6327028525</v>
+        <v>284216.0865452426</v>
       </c>
       <c r="E6" t="n">
-        <v>133372.279997293</v>
+        <v>199295.1808343471</v>
       </c>
       <c r="F6" t="n">
-        <v>366212.481990548</v>
+        <v>381650.2900553971</v>
       </c>
       <c r="G6" t="n">
-        <v>361354.4303715894</v>
+        <v>381650.2900553971</v>
       </c>
       <c r="H6" t="n">
-        <v>381673.5143947796</v>
+        <v>381650.290055397</v>
       </c>
       <c r="I6" t="n">
-        <v>381673.5143947796</v>
+        <v>381650.2900553968</v>
       </c>
       <c r="J6" t="n">
-        <v>270659.0490497893</v>
+        <v>270635.8247104066</v>
       </c>
       <c r="K6" t="n">
-        <v>381673.5143947795</v>
+        <v>328604.4354166248</v>
       </c>
       <c r="L6" t="n">
-        <v>381673.5143947795</v>
+        <v>372257.9883287741</v>
       </c>
       <c r="M6" t="n">
-        <v>187078.7382594094</v>
+        <v>229450.1191174091</v>
       </c>
       <c r="N6" t="n">
-        <v>381117.916361197</v>
+        <v>381650.2900553969</v>
       </c>
       <c r="O6" t="n">
-        <v>365656.8839569651</v>
+        <v>381650.2900553971</v>
       </c>
       <c r="P6" t="n">
-        <v>365656.8839569652</v>
+        <v>381650.290055397</v>
       </c>
     </row>
   </sheetData>
@@ -26716,16 +26716,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>2.739084921992133</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>2.739084921992133</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>2.739084921992133</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>2.739084921992133</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26790,22 +26790,22 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>630.4048323684617</v>
       </c>
       <c r="D4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>1204.126260273337</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="F4" t="n">
-        <v>1204.126260273337</v>
+        <v>1278.260503384746</v>
       </c>
       <c r="G4" t="n">
         <v>1278.260503384745</v>
       </c>
       <c r="H4" t="n">
-        <v>1278.260503384745</v>
+        <v>1278.260503384746</v>
       </c>
       <c r="I4" t="n">
         <v>1278.260503384745</v>
@@ -26820,16 +26820,16 @@
         <v>1278.260503384745</v>
       </c>
       <c r="M4" t="n">
-        <v>1268.272920827792</v>
+        <v>1278.260503384746</v>
       </c>
       <c r="N4" t="n">
-        <v>1268.272920827792</v>
+        <v>1278.260503384746</v>
       </c>
       <c r="O4" t="n">
-        <v>1194.138677716385</v>
+        <v>1278.260503384746</v>
       </c>
       <c r="P4" t="n">
-        <v>1194.138677716385</v>
+        <v>1278.260503384746</v>
       </c>
     </row>
   </sheetData>
@@ -26929,7 +26929,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26938,7 +26938,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>2.739084921992133</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27012,19 +27012,19 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>206.1089748483574</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>37.11037423939521</v>
       </c>
       <c r="E4" t="n">
-        <v>779.8304027532331</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>74.13424311140757</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201046</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.1089748483574</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939521</v>
       </c>
       <c r="M4" t="n">
-        <v>769.8428201962804</v>
+        <v>610.7452967768886</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27258,19 +27258,19 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.1089748483574</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939521</v>
       </c>
       <c r="M4" t="n">
-        <v>779.8304027532331</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>74.13424311140757</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,10 +27376,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>113.7278999628231</v>
+        <v>400</v>
       </c>
       <c r="D2" t="n">
         <v>400</v>
@@ -27433,19 +27433,19 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>329.3487601844884</v>
       </c>
     </row>
     <row r="3">
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>83.83779588133098</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
         <v>170.8360944016073</v>
@@ -27582,10 +27582,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27603,7 +27603,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>72.78996144619879</v>
       </c>
     </row>
     <row r="5">
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>194.4720199914197</v>
       </c>
       <c r="C5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>217.8665548556918</v>
@@ -27676,13 +27676,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>399.9667529740389</v>
+        <v>400</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6">
@@ -27771,13 +27771,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19.26974202066685</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>164.2192128704925</v>
+        <v>24.15449395819169</v>
       </c>
       <c r="E7" t="n">
         <v>168.0604237117701</v>
@@ -27789,10 +27789,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27825,7 +27825,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>3.32966510043002</v>
       </c>
       <c r="C8" t="n">
-        <v>72.71868052833509</v>
+        <v>400</v>
       </c>
       <c r="D8" t="n">
         <v>400</v>
@@ -27904,19 +27904,19 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28011,25 +28011,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>160.7958207444076</v>
       </c>
       <c r="H10" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,13 +28056,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>85.83944867205649</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>-9.697685318346743e-13</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
     </row>
     <row r="15">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>-1.039137308914149e-12</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,22 +28612,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
     </row>
     <row r="21">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2.739084921992133</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>2.739084921992133</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>2.739084921992133</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>2.739084921992133</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>2.739084921992133</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>2.739084921992133</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>2.739084921992133</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>2.739084921992133</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>2.739084921992133</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>2.739084921992133</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>2.739084921992133</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>2.739084921992133</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>2.739084921992133</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>2.739084921992133</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2.739084921992133</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>2.739084921992133</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>2.739084921992133</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>2.739084921992133</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>2.739084921992133</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2.739084921992133</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>2.739084921992133</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>2.739084921992133</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>2.739084921992133</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>2.739084921992133</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>2.739084921992133</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>2.739084921992133</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>2.739084921992133</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>2.739084921992133</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>2.739084921992133</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>2.739084921992133</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>2.739084921992133</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>2.739084921992133</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>2.739084921992133</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>2.739084921992133</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>2.739084921992133</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>2.739084921992133</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>2.739084921992133</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>2.739084921992133</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2.739084921992133</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>2.739084921992133</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>2.739084921992133</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>2.739084921992133</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>2.739084921992133</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>2.739084921992133</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>2.739084921992133</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>2.739084921992133</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>2.739084921992133</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>2.739084921992133</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>2.739084921992133</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>2.739084921992133</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>2.739084921992133</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>2.739084921992133</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2.739084921992133</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>2.739084921992133</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>2.739084921992133</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>2.739084921992133</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>2.739084921992133</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.739084921992133</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>2.739084921992133</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>2.739084921992133</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>2.739084921992133</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>2.739084921992133</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>2.739084921992133</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>2.739084921992133</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>2.739084921992133</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>2.739084921992133</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>2.739084921992133</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>2.739084921992133</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>2.739084921992133</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>2.739084921992133</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>2.739084921992133</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>2.739084921992133</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>2.739084921992133</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>2.739084921992133</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>2.739084921992133</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>2.739084921992133</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2.739084921992133</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="C41" t="n">
-        <v>2.739084921992133</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="D41" t="n">
-        <v>2.739084921992133</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="E41" t="n">
-        <v>2.739084921992133</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="F41" t="n">
-        <v>2.739084921992133</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="G41" t="n">
-        <v>2.739084921992133</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>2.739084921992133</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>2.739084921992133</v>
+        <v>-1.861621967691462e-12</v>
       </c>
       <c r="T41" t="n">
-        <v>2.739084921992133</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="U41" t="n">
-        <v>2.739084921992133</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="V41" t="n">
-        <v>2.739084921992133</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="W41" t="n">
-        <v>2.739084921992133</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="X41" t="n">
-        <v>2.739084921992133</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="Y41" t="n">
-        <v>2.739084921992133</v>
+        <v>-6.936877707947526e-14</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2.739084921992133</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>2.739084921992133</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>2.739084921992133</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>2.739084921992133</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>2.739084921992133</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.739084921992133</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>2.739084921992133</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>2.739084921992133</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>2.739084921992133</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>2.739084921992133</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>2.739084921992133</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>2.739084921992133</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>2.739084921992133</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>2.739084921992133</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>2.739084921992133</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>2.739084921992133</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>2.739084921992133</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>2.739084921992133</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>2.739084921992133</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>2.739084921992133</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>2.739084921992133</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>2.739084921992133</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>2.739084921992133</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>2.739084921992133</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2.739084921992133</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="C44" t="n">
-        <v>2.739084921992133</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="D44" t="n">
-        <v>2.739084921992133</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="E44" t="n">
-        <v>2.739084921992133</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="F44" t="n">
-        <v>2.739084921992133</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="G44" t="n">
-        <v>2.739084921992133</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="H44" t="n">
-        <v>2.739084921992133</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>2.739084921992133</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="T44" t="n">
-        <v>2.739084921992133</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="U44" t="n">
-        <v>2.739084921992133</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="V44" t="n">
-        <v>2.739084921992133</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="W44" t="n">
-        <v>2.739084921992133</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="X44" t="n">
-        <v>2.739084921992133</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="Y44" t="n">
-        <v>2.739084921992133</v>
+        <v>-6.936877707947526e-14</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2.739084921992133</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>2.739084921992133</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>2.739084921992133</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>2.739084921992133</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>2.739084921992133</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>2.739084921992133</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>2.739084921992133</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>2.739084921992133</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>2.739084921992133</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>2.739084921992133</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>2.739084921992133</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>2.739084921992133</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>2.739084921992133</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>2.739084921992133</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>2.739084921992133</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>2.739084921992133</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>2.739084921992133</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>2.739084921992133</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>2.739084921992133</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>2.739084921992133</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>2.739084921992133</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>2.739084921992133</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>2.739084921992133</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>2.739084921992133</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34699,10 +34699,10 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>424.2958575201043</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -34714,7 +34714,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>424.2958575201044</v>
@@ -34778,22 +34778,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>358.9284720888815</v>
+      </c>
+      <c r="P3" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>358.9284720888814</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>150.1941962971706</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N4" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512943</v>
+        <v>409.0142240616578</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821539</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,13 +34933,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>424.2958575201043</v>
+        <v>630.4048323684616</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -34948,16 +34948,16 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201044</v>
+        <v>630.4048323684617</v>
       </c>
       <c r="P5" t="n">
-        <v>407.1525905495951</v>
+        <v>72.80589558610768</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35015,10 +35015,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>630.4048323684617</v>
       </c>
       <c r="L6" t="n">
-        <v>424.2958575201043</v>
+        <v>30.91440664742095</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35030,10 +35030,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>358.9284720888816</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,7 +35091,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
@@ -35100,19 +35100,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>371.7091627680287</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821539</v>
+        <v>110.4038313238307</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,13 +35170,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -35185,16 +35185,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>407.1525905495951</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35252,10 +35252,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35270,7 +35270,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
-        <v>56.52305090189834</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201043</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512944</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35416,7 +35416,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -35431,7 +35431,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>20.72895681336468</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,13 +35489,13 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908054</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
@@ -35574,7 +35574,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
@@ -35644,10 +35644,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>439.6511994473918</v>
+        <v>439.6511994473919</v>
       </c>
       <c r="K14" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
         <v>1085.919157831171</v>
@@ -35656,7 +35656,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>143.407914635246</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831377</v>
@@ -35668,7 +35668,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>20.72895681336468</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,25 +35723,25 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -35802,13 +35802,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M16" t="n">
         <v>464.1251183645586</v>
@@ -35893,7 +35893,7 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>143.4079146352447</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
@@ -35957,7 +35957,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
         <v>327.836691885063</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
@@ -36054,7 +36054,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P19" t="n">
         <v>351.017064616507</v>
@@ -36118,19 +36118,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>439.6511994473918</v>
+        <v>439.6511994473919</v>
       </c>
       <c r="K20" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>143.407914635246</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
@@ -36194,10 +36194,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K21" t="n">
         <v>661.3192390158824</v>
@@ -36276,13 +36276,13 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L22" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M22" t="n">
         <v>464.1251183645586</v>
@@ -36364,10 +36364,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N23" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
         <v>327.836691885063</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K25" t="n">
         <v>277.5337924960966</v>
@@ -36838,10 +36838,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N29" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
         <v>327.836691885063</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K31" t="n">
         <v>277.5337924960966</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
         <v>327.836691885063</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K34" t="n">
         <v>277.5337924960966</v>
@@ -37303,7 +37303,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473918</v>
+        <v>439.6511994473919</v>
       </c>
       <c r="K35" t="n">
         <v>842.7780726850283</v>
@@ -37312,16 +37312,16 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>103.8611230966035</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>990.0804712831377</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>836.6766412458546</v>
+        <v>801.4298400828739</v>
       </c>
       <c r="Q35" t="n">
         <v>552.0189757157523</v>
@@ -37379,13 +37379,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K36" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>90.1933123610728</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
-        <v>280.2728774180887</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L37" t="n">
-        <v>425.1733089300336</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M37" t="n">
-        <v>466.8642032865506</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N37" t="n">
-        <v>449.4651487175929</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O37" t="n">
-        <v>426.6474174732866</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P37" t="n">
-        <v>353.7561495384989</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q37" t="n">
-        <v>172.6307767041458</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,7 +37540,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>439.6511994473918</v>
+        <v>439.6511994473919</v>
       </c>
       <c r="K38" t="n">
         <v>842.7780726850283</v>
@@ -37549,10 +37549,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>143.407914635246</v>
       </c>
       <c r="N38" t="n">
-        <v>103.8611230966035</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
@@ -37616,13 +37616,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K39" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>90.1933123610728</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
-        <v>280.2728774180887</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
-        <v>425.1733089300336</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M40" t="n">
-        <v>466.8642032865508</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N40" t="n">
-        <v>449.4651487175927</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
-        <v>426.6474174732866</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P40" t="n">
-        <v>353.7561495384989</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q40" t="n">
-        <v>172.6307767041458</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,10 +37777,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>439.6511994473918</v>
+        <v>439.6511994473919</v>
       </c>
       <c r="K41" t="n">
-        <v>823.9602379597516</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
         <v>1085.919157831171</v>
@@ -37789,7 +37789,7 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>143.407914635246</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831377</v>
@@ -37801,7 +37801,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,10 +37856,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>90.19331236107278</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
-        <v>280.2728774180887</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>425.1733089300337</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M43" t="n">
-        <v>466.8642032865507</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N43" t="n">
-        <v>449.4651487175927</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>426.6474174732866</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P43" t="n">
-        <v>353.7561495384989</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q43" t="n">
-        <v>172.6307767041458</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,16 +38014,16 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>439.6511994473918</v>
+        <v>439.6511994473919</v>
       </c>
       <c r="K44" t="n">
-        <v>823.9602379597516</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>143.407914635246</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -38038,7 +38038,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,10 +38093,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>90.19331236107278</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
-        <v>280.2728774180887</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>425.1733089300336</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M46" t="n">
-        <v>466.8642032865508</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N46" t="n">
-        <v>449.4651487175927</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>426.6474174732866</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P46" t="n">
-        <v>353.7561495384994</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q46" t="n">
-        <v>172.6307767041462</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
